--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409944.935487465</v>
+        <v>3408057.353971061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>129.7857003665475</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>15.67129869336543</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>107.0735227013098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>144.2416157073188</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
-        <v>157.004478340614</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385009</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,10 +1582,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>183.4653217847134</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>97.58716462297963</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.87916681139875</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>3.633341602776254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500651</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>200.5701849660526</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>206.8064269214862</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>235.5975646709551</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.0041688483413</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965543</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389792</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571505</v>
+        <v>1.599126004630846</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523586</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>148.6444930333585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2566.052423981306</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2347.417756953369</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2093.65597159146</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1762.593084247889</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1409.824428977775</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4510,25 +4510,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>564.1527310008552</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>564.1527310008552</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2533.965328113049</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2280.203542751141</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1949.14065540757</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1596.372000137456</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1222.906241876376</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>982.816591002696</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>982.816591002696</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>624.5508923959455</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066818</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>569.538602044198</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>569.538602044198</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,34 +5288,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.597763704656</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>192.0445326839209</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.7133084820795</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996864</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247859</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>761.5395953944297</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>506.8551071885429</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336709</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.2415044384084</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,64 +6449,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>454.4181912574276</v>
+        <v>604.5641438163775</v>
       </c>
       <c r="C31" t="n">
-        <v>454.4181912574276</v>
+        <v>491.3888261698413</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264625</v>
+        <v>397.0330520388763</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264625</v>
+        <v>397.0330520388763</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264625</v>
+        <v>305.9039698223368</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>193.4895134235281</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>98.83237025284228</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818914</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652447</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.3057908062966</v>
+        <v>730.4517433652464</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6743,7 +6743,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970602</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503174</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>308.1251096272039</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,16 +10665,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>14.45548819888981</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>188.9358337136114</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517042</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>282.8896567338148</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179247</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>85.66716743252476</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690307</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>50.63978772762223</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987105</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338594</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801224</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437432</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.61686283108412</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.73690369017933</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541052</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.401554105</v>
       </c>
       <c r="G2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541049</v>
-      </c>
       <c r="I2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="J2" t="n">
         <v>664749.401554105</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869594</v>
+        <v>691597.6334869596</v>
       </c>
       <c r="L2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="M2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="N2" t="n">
         <v>697885.5043846406</v>
       </c>
-      <c r="M2" t="n">
-        <v>697885.5043846411</v>
-      </c>
-      <c r="N2" t="n">
-        <v>697885.5043846407</v>
-      </c>
       <c r="O2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007533</v>
+        <v>7916.731656007453</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007521</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
@@ -26439,22 +26439,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020397</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732799</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="N4" t="n">
-        <v>30335.51889732798</v>
-      </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,10 +26491,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092337</v>
+        <v>-122858.5016092336</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.377605311</v>
+        <v>467109.3776053109</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053107</v>
+        <v>467109.3776053108</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248516</v>
+        <v>39587.84834651191</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234088</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493809</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493808</v>
+        <v>564747.8848234088</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234083</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.124756788</v>
+        <v>388324.6656308157</v>
       </c>
       <c r="K6" t="n">
-        <v>524725.465483687</v>
+        <v>524706.9717457528</v>
       </c>
       <c r="L6" t="n">
-        <v>559491.9728664203</v>
+        <v>559491.9728664204</v>
       </c>
       <c r="M6" t="n">
-        <v>435033.8644334507</v>
+        <v>435033.8644334502</v>
       </c>
       <c r="N6" t="n">
-        <v>569834.8796672873</v>
+        <v>569834.8796672872</v>
       </c>
       <c r="O6" t="n">
-        <v>569834.8796672876</v>
+        <v>569834.8796672875</v>
       </c>
       <c r="P6" t="n">
-        <v>525672.2743644419</v>
+        <v>525672.2743644415</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>73.03089870524497</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.63001244242406</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>270.6105755486123</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>109.374797656348</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>237.688754364943</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
-        <v>129.518519995977</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076452</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382566</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>618.5494866776701</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412246</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043169</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
